--- a/cmd/xlsx/Test-测试表.xlsx
+++ b/cmd/xlsx/Test-测试表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\upday\Desktop\project\CCFrameIng\cmd\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB1BE02-A6ED-49E8-BFA3-1EADE24EC4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +372,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cmd/xlsx/Test-测试表.xlsx
+++ b/cmd/xlsx/Test-测试表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\upday\Desktop\project\CCFrameIng\cmd\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\project\CCFrameIng\cmd\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB1BE02-A6ED-49E8-BFA3-1EADE24EC4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF1712-2B99-4C41-9709-D30070E0B870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,46 @@
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["1",2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localstring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,8 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -373,34 +414,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/cmd/xlsx/Test-测试表.xlsx
+++ b/cmd/xlsx/Test-测试表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\project\CCFrameIng\cmd\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\upday\Desktop\project\CCFrameIng\cmd\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF1712-2B99-4C41-9709-D30070E0B870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2646CBBC-6C1A-4C54-BFD8-2CAA2BBA16F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>localstring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,9 +139,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,91 +424,105 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>-1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6"/>
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>4</v>
+      <c r="A8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/cmd/xlsx/Test-测试表.xlsx
+++ b/cmd/xlsx/Test-测试表.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\upday\Desktop\project\CCFrameIng\cmd\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\project\CCFrameIng\cmd\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2646CBBC-6C1A-4C54-BFD8-2CAA2BBA16F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192F320-6D29-4CB3-B0C9-0A585D0CFCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="zhCN" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,19 +79,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["1",2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>localstring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3;1|2|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testHa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testha1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -434,7 +470,7 @@
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -442,87 +478,138 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>1221</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-1</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>112</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/cmd/xlsx/Test-测试表.xlsx
+++ b/cmd/xlsx/Test-测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\project\CCFrameIng\cmd\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192F320-6D29-4CB3-B0C9-0A585D0CFCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C461A762-DC7D-4574-8CEE-D579A2BC2CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,47 +35,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[][][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2]</t>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[][][]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,55 +127,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|3;1|2|4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[][]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testHa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testha1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>localstring[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localstring[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localstring[][][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noshow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>测试4</t>
+  </si>
+  <si>
+    <t>测试5</t>
+  </si>
+  <si>
+    <t>测试6</t>
+  </si>
+  <si>
+    <t>测试7</t>
+  </si>
+  <si>
+    <t>测试8</t>
+  </si>
+  <si>
+    <t>测试9</t>
+  </si>
+  <si>
+    <t>测试10</t>
+  </si>
+  <si>
+    <t>测试11</t>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["4"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,3],[2,3]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,4]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[101,10],[102,20]],[[201,10],[202,20]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[101,10],[102,20]],[[201,10],[202,20]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[101,10],[102,20]],[[201,10],[202,20]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[哈哈,22]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["哈哈","22"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.spilt()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈,22;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,21],[2],[4][]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +260,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -175,8 +294,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,159 +579,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B9" s="1">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B12" s="1">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>1221</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>-1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>112</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="B13" s="1">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/cmd/xlsx/Test-测试表.xlsx
+++ b/cmd/xlsx/Test-测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\project\CCFrameIng\cmd\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C461A762-DC7D-4574-8CEE-D579A2BC2CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480555BA-8EB3-457D-BBCD-E1A8B8E5889D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string[][]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,7 +242,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[1,21],[2],[4][]</t>
+    <t>[[1,21],[2],[4]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1], [2], ["哈哈\n呵呵a", "b"],[]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item,num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key,  value1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -686,37 +698,37 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>28</v>
@@ -733,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
@@ -764,139 +776,150 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>-1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
+      <c r="F8" s="1">
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1">
-        <v>55</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>66</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>6</v>
       </c>
     </row>

--- a/cmd/xlsx/Test-测试表.xlsx
+++ b/cmd/xlsx/Test-测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\project\CCFrameIng\cmd\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480555BA-8EB3-457D-BBCD-E1A8B8E5889D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4EA369-BD03-4A1A-B505-47A16C4EEB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,14 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["4"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[1,4]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,34 +202,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[[101,10],[102,20]],[[201,10],[202,20]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[101,10],[102,20]],[[201,10],[202,20]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[哈哈,22]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["哈哈","22"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[1]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a.spilt()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈哈,22;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[1,21],[2],[4]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,6 +219,34 @@
   </si>
   <si>
     <t>key,  value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["哈哈","22"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,4]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈地方[\n]a\b\t卧槽"a"《'[style]'》"&lt;stryle&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“3"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测'试'’1‘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -777,10 +769,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -791,135 +783,108 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>53</v>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1">
         <v>66</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C13" s="1">
         <v>6</v>
       </c>
     </row>

--- a/cmd/xlsx/Test-测试表.xlsx
+++ b/cmd/xlsx/Test-测试表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\project\CCFrameIng\cmd\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4EA369-BD03-4A1A-B505-47A16C4EEB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BE9EE1-224E-4E98-B6A5-33936B7C2D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zhCN" sheetId="1" r:id="rId1"/>
+    <sheet name="zhTW" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>jiangle</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{F3A15BB9-0386-4B67-90B2-DC93B97485A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jiangle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+cgsfdg</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,218 +72,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[][][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>测试4</t>
+  </si>
+  <si>
+    <t>测试5</t>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,3],[2,3]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[101,10],[102,20]],[[201,10],[202,20]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key,  value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["哈哈","22"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,4]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“3"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测'试'’1‘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemId,num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[][]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[][]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[][][]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loc2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loc3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[][]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[][][]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localstring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localstring[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localstring[][]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localstring[][][]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noshow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试3</t>
-  </si>
-  <si>
-    <t>测试4</t>
-  </si>
-  <si>
-    <t>测试5</t>
-  </si>
-  <si>
-    <t>测试6</t>
-  </si>
-  <si>
-    <t>测试7</t>
-  </si>
-  <si>
-    <t>测试8</t>
-  </si>
-  <si>
-    <t>测试9</t>
-  </si>
-  <si>
-    <t>测试10</t>
-  </si>
-  <si>
-    <t>测试11</t>
-  </si>
-  <si>
-    <t>[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,3],[2,3]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[[101,10],[102,20]],[[201,10],[202,20]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,21],[2],[4]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1], [2], ["哈哈\n呵呵a", "b"],[]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item,num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key,  value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["哈哈","22"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,4]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈地方[\n]a\b\t卧槽"a"《'[style]'》"&lt;stryle&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“3"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测'试'’1‘</t>
+    <t>的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdtra</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +243,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -582,11 +564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,210 +577,126 @@
     <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>-1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -806,33 +704,33 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="1">
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -840,16 +738,16 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -857,16 +755,16 @@
         <v>-2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -874,10 +772,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -892,5 +790,65 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCA3C7D-EEFB-4F46-8D55-DB4A3A7A13B1}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cmd/xlsx/Test-测试表.xlsx
+++ b/cmd/xlsx/Test-测试表.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\project\CCFrameIng\cmd\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BE9EE1-224E-4E98-B6A5-33936B7C2D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDE574E-CF6E-427C-9D8E-64228AFDB3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zhCN" sheetId="1" r:id="rId1"/>
-    <sheet name="zhTW" sheetId="2" r:id="rId2"/>
+    <sheet name="zhGT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[["哈哈","22"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,19 +197,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdtra</t>
+    <t>[1.2,22]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打坐几小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siteTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lstring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,12 +292,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -280,9 +318,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,12 +618,12 @@
     <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -601,14 +642,26 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -624,14 +677,23 @@
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,14 +712,23 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -676,32 +747,50 @@
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6" s="2">
+        <v>1001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>84</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>1.1000000000000001</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -710,15 +799,15 @@
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>33</v>
@@ -727,10 +816,10 @@
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -738,7 +827,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -747,7 +836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -755,16 +844,16 @@
         <v>-2</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -775,7 +864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -796,55 +885,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCA3C7D-EEFB-4F46-8D55-DB4A3A7A13B1}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/cmd/xlsx/Test-测试表.xlsx
+++ b/cmd/xlsx/Test-测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\project\CCFrameIng\cmd\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDE574E-CF6E-427C-9D8E-64228AFDB3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4392F7AC-6033-470B-A77E-CB99FB894BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,10 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localstring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,12 +613,13 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.375" style="1" bestFit="1" customWidth="1"/>
@@ -757,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>41</v>
@@ -790,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>12345678965</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -810,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>33</v>
+        <v>1234567896559230</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -824,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>44</v>
+        <v>883160367624</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
